--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Fpr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Fpr2</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0002446666666666666</v>
+        <v>0.001083333333333333</v>
       </c>
       <c r="H2">
-        <v>0.000734</v>
+        <v>0.00325</v>
       </c>
       <c r="I2">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="J2">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.006255666666667</v>
+        <v>0.050657</v>
       </c>
       <c r="N2">
-        <v>3.018767</v>
+        <v>0.151971</v>
       </c>
       <c r="O2">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P2">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q2">
-        <v>0.0002461972197777778</v>
+        <v>5.487841666666666E-05</v>
       </c>
       <c r="R2">
-        <v>0.002215774978</v>
+        <v>0.0004939057499999999</v>
       </c>
       <c r="S2">
-        <v>0.0008663533609407578</v>
+        <v>0.0001223774891770312</v>
       </c>
       <c r="T2">
-        <v>0.0008663533609407579</v>
+        <v>0.0001223774891770312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0002446666666666666</v>
+        <v>0.001083333333333333</v>
       </c>
       <c r="H3">
-        <v>0.000734</v>
+        <v>0.00325</v>
       </c>
       <c r="I3">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="J3">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.646551333333334</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N3">
-        <v>22.939654</v>
+        <v>3.018767</v>
       </c>
       <c r="O3">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P3">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q3">
-        <v>0.001870856226222222</v>
+        <v>0.001090110305555556</v>
       </c>
       <c r="R3">
-        <v>0.016837706036</v>
+        <v>0.009810992749999999</v>
       </c>
       <c r="S3">
-        <v>0.006583431693044909</v>
+        <v>0.002430918569138053</v>
       </c>
       <c r="T3">
-        <v>0.006583431693044909</v>
+        <v>0.002430918569138053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.0002446666666666666</v>
+        <v>0.001083333333333333</v>
       </c>
       <c r="H4">
-        <v>0.000734</v>
+        <v>0.00325</v>
       </c>
       <c r="I4">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="J4">
-        <v>0.0217024925342243</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.55429333333333</v>
+        <v>18.813815</v>
       </c>
       <c r="N4">
-        <v>49.66287999999999</v>
+        <v>56.441445</v>
       </c>
       <c r="O4">
-        <v>0.6567313619743199</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="P4">
-        <v>0.6567313619743199</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="Q4">
-        <v>0.004050283768888887</v>
+        <v>0.02038163291666667</v>
       </c>
       <c r="R4">
-        <v>0.03645255391999999</v>
+        <v>0.18343469625</v>
       </c>
       <c r="S4">
-        <v>0.01425270748023863</v>
+        <v>0.04545052888132278</v>
       </c>
       <c r="T4">
-        <v>0.01425270748023864</v>
+        <v>0.04545052888132278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.00325</v>
       </c>
       <c r="I5">
-        <v>0.09609414269241004</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="J5">
-        <v>0.09609414269241004</v>
+        <v>0.05762615695592042</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.006255666666667</v>
+        <v>3.983073</v>
       </c>
       <c r="N5">
-        <v>3.018767</v>
+        <v>11.949219</v>
       </c>
       <c r="O5">
-        <v>0.03991953272530977</v>
+        <v>0.1669785480167087</v>
       </c>
       <c r="P5">
-        <v>0.03991953272530977</v>
+        <v>0.1669785480167088</v>
       </c>
       <c r="Q5">
-        <v>0.001090110305555556</v>
+        <v>0.004314995749999999</v>
       </c>
       <c r="R5">
-        <v>0.009810992749999999</v>
+        <v>0.03883496174999999</v>
       </c>
       <c r="S5">
-        <v>0.003836033273920249</v>
+        <v>0.009622332016282554</v>
       </c>
       <c r="T5">
-        <v>0.003836033273920249</v>
+        <v>0.009622332016282554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.017716</v>
+      </c>
+      <c r="H6">
+        <v>0.053148</v>
+      </c>
+      <c r="I6">
+        <v>0.9423738430440797</v>
+      </c>
+      <c r="J6">
+        <v>0.9423738430440796</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.001083333333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.00325</v>
-      </c>
-      <c r="I6">
-        <v>0.09609414269241004</v>
-      </c>
-      <c r="J6">
-        <v>0.09609414269241004</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>7.646551333333334</v>
+        <v>0.050657</v>
       </c>
       <c r="N6">
-        <v>22.939654</v>
+        <v>0.151971</v>
       </c>
       <c r="O6">
-        <v>0.3033491053003704</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P6">
-        <v>0.3033491053003704</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q6">
-        <v>0.008283763944444444</v>
+        <v>0.000897439412</v>
       </c>
       <c r="R6">
-        <v>0.07455387550000001</v>
+        <v>0.008076954708</v>
       </c>
       <c r="S6">
-        <v>0.02915007221034871</v>
+        <v>0.002001267321471033</v>
       </c>
       <c r="T6">
-        <v>0.02915007221034871</v>
+        <v>0.002001267321471033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.001083333333333333</v>
+        <v>0.017716</v>
       </c>
       <c r="H7">
-        <v>0.00325</v>
+        <v>0.053148</v>
       </c>
       <c r="I7">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440797</v>
       </c>
       <c r="J7">
-        <v>0.09609414269241004</v>
+        <v>0.9423738430440796</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,60 +865,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.55429333333333</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N7">
-        <v>49.66287999999999</v>
+        <v>3.018767</v>
       </c>
       <c r="O7">
-        <v>0.6567313619743199</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P7">
-        <v>0.6567313619743199</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q7">
-        <v>0.01793381777777777</v>
+        <v>0.01782682539066667</v>
       </c>
       <c r="R7">
-        <v>0.16140436</v>
+        <v>0.160441428516</v>
       </c>
       <c r="S7">
-        <v>0.06310803720814109</v>
+        <v>0.03975337234232285</v>
       </c>
       <c r="T7">
-        <v>0.06310803720814109</v>
+        <v>0.03975337234232285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.009945666666666667</v>
+        <v>0.017716</v>
       </c>
       <c r="H8">
-        <v>0.029837</v>
+        <v>0.053148</v>
       </c>
       <c r="I8">
-        <v>0.8822033647733657</v>
+        <v>0.9423738430440797</v>
       </c>
       <c r="J8">
-        <v>0.8822033647733657</v>
+        <v>0.9423738430440796</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,60 +927,60 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.006255666666667</v>
+        <v>18.813815</v>
       </c>
       <c r="N8">
-        <v>3.018767</v>
+        <v>56.441445</v>
       </c>
       <c r="O8">
-        <v>0.03991953272530977</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="P8">
-        <v>0.03991953272530977</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="Q8">
-        <v>0.01000788344211111</v>
+        <v>0.33330554654</v>
       </c>
       <c r="R8">
-        <v>0.090070950979</v>
+        <v>2.99974991886</v>
       </c>
       <c r="S8">
-        <v>0.03521714609044876</v>
+        <v>0.7432629873798595</v>
       </c>
       <c r="T8">
-        <v>0.03521714609044876</v>
+        <v>0.7432629873798594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.009945666666666667</v>
+        <v>0.017716</v>
       </c>
       <c r="H9">
-        <v>0.029837</v>
+        <v>0.053148</v>
       </c>
       <c r="I9">
-        <v>0.8822033647733657</v>
+        <v>0.9423738430440797</v>
       </c>
       <c r="J9">
-        <v>0.8822033647733657</v>
+        <v>0.9423738430440796</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,90 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.646551333333334</v>
+        <v>3.983073</v>
       </c>
       <c r="N9">
-        <v>22.939654</v>
+        <v>11.949219</v>
       </c>
       <c r="O9">
-        <v>0.3033491053003704</v>
+        <v>0.1669785480167087</v>
       </c>
       <c r="P9">
-        <v>0.3033491053003704</v>
+        <v>0.1669785480167088</v>
       </c>
       <c r="Q9">
-        <v>0.0760500507108889</v>
+        <v>0.07056412126799999</v>
       </c>
       <c r="R9">
-        <v>0.684450456398</v>
+        <v>0.635077091412</v>
       </c>
       <c r="S9">
-        <v>0.2676156013969768</v>
+        <v>0.1573562160004262</v>
       </c>
       <c r="T9">
-        <v>0.2676156013969768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.009945666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.029837</v>
-      </c>
-      <c r="I10">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="J10">
-        <v>0.8822033647733657</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.55429333333333</v>
-      </c>
-      <c r="N10">
-        <v>49.66287999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.6567313619743199</v>
-      </c>
-      <c r="P10">
-        <v>0.6567313619743199</v>
-      </c>
-      <c r="Q10">
-        <v>0.1646434833955555</v>
-      </c>
-      <c r="R10">
-        <v>1.48179135056</v>
-      </c>
-      <c r="S10">
-        <v>0.5793706172859402</v>
-      </c>
-      <c r="T10">
-        <v>0.5793706172859402</v>
+        <v>0.1573562160004262</v>
       </c>
     </row>
   </sheetData>
